--- a/spreadsheet/macrofree/aoai_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/aoai_checklist.ko.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>메타프롬프트</t>
+          <t>메타프롬팅</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>공명형 AI를 위한 Metaprompting 가드레일 따르기</t>
+          <t>Reonsible AI를 위한 Metaprompting 가드레일 따르기</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>더 나은 속도 제한, 부하 분산, 인증 및 로깅을 위해 APIM 또는 AI Central과 같은 솔루션을 사용하여 게이트웨이 패턴을 고려합니다.</t>
+          <t>더 나은 속도 제한, 로드 밸런싱, 인증 및 로깅을 위해 APIM 또는 AI Central과 같은 솔루션을 사용하여 게이트웨이 패턴을 고려합니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>리소스에 대해 수행된 작업(예: 구독 키 다시 생성) 또는 메트릭 임계값(예: 한 시간에 10을 초과하는 오류 수)에 의해 생성된 활동 로그의 항목과 같은 이벤트를 팀에 알리는 경고를 만듭니다</t>
+          <t>구독 키 다시 생성과 같이 리소스에 대해 수행된 작업에 의해 생성된 활동 로그의 항목 또는 한 시간에 10을 초과하는 오류 수와 같은 메트릭 임계값과 같은 이벤트를 팀에 알리는 경고를 만듭니다</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>용량으로 인한 서비스 중단을 방지하기 위해 토큰 사용량을 모니터링합니다.</t>
+          <t>토큰 사용량을 모니터링하여 용량으로 인한 서비스 중단을 방지합니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>진단이 충분하지 않은 경우 Azure OpenAI 앞에 있는 Azure API Managements와 같은 게이트웨이를 사용하여 허용되는 경우 들어오는 프롬프트와 나가는 응답을 모두 기록하는 것이 좋습니다</t>
+          <t>Azure OpenAI 서비스에 대한 진단을 사용하도록 설정하고 구성합니다. 충분하지 않은 경우 허용되는 경우 Azure OpenAI 앞에 Azure API Managements와 같은 게이트웨이를 사용하여 들어오는 프롬프트와 나가는 응답을 모두 기록하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">프로비저닝된 처리량 모델의 사용 평가 </t>
+          <t xml:space="preserve">프로비저닝된 처리량 모델의 사용량 평가 </t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure AI 콘텐츠 안전성 검토 및 구현</t>
+          <t>Azure AI 콘텐츠 안전 검토 및 구현</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>분당 토큰 및 응답을 기반으로 시스템의 처리량을 정의 및 평가하고 요구 사항에 맞춥니다.</t>
+          <t>분당 토큰 및 응답을 기반으로 시스템의 처리량을 정의 및 평가하고 요구 사항에 맞게 조정합니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>토큰 크기, 스트리밍 옵션을 제한하여 시스템의 대기 시간을 개선합니다.</t>
+          <t>토큰 크기, 챗봇 또는 대화형 인터페이스와 같은 애플리케이션에 대한 스트리밍 옵션을 제한하여 시스템의 대기 시간을 개선합니다. 스트리밍은 증분 방식으로 사용자에게 응답을 제공하여 Azure OpenAI 애플리케이션의 체감 성능을 향상시킬 수 있습니다</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>탄력성 요구를 예측하여 우선 순위에 따라 동기 및 일괄 처리 요청 분리를 결정합니다. 우선 순위가 높은 경우 동기 접근 방식을 사용하고 낮은 우선 순위의 경우 큐를 사용한 비동기 일괄 처리가 선호됩니다</t>
+          <t>우선 순위에 따라 동기 및 일괄 처리 요청 분리를 결정하기 위해 탄력성 요구 사항을 추정합니다. 높은 우선 순위의 경우 동기 접근 방식을 사용하고 낮은 우선 순위의 경우 큐를 사용한 비동기 일괄 처리를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>소비자의 예상 수요를 기반으로 토큰 사용 요구 사항을 벤치마킹합니다. 프로비저닝된 처리량 단위 배포를 사용하는 경우 처리량의 유효성을 검사하는 데 도움이 되도록 Azure OpenAI 벤치마킹 도구를 사용하는 것이 좋습니다</t>
+          <t>소비자의 예상 수요를 기반으로 토큰 사용 요구 사항을 벤치마킹합니다. 프로비저닝된 처리량 단위 배포를 사용하는 경우 처리량의 유효성을 검사하는 데 도움이 되는 Azure OpenAI 벤치마킹 도구를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>올바른 작업에 적합한 모델을 선택하십시오. 속도, 응답 품질 및 출력 복잡성 간에 적절한 절충점이 있는 모델 선택</t>
+          <t>올바른 작업에 적합한 모델을 선택하십시오. 속도, 응답 품질 및 출력 복잡성 간의 적절한 절충이 있는 모델 선택</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>로드 밸런싱</t>
+          <t>부하 분산Load balancing</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>로드 밸런싱</t>
+          <t>부하 분산Load balancing</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">SLA를 갖도록 Azure AI 검색 서비스 계층을 선택해야 합니다. </t>
+          <t xml:space="preserve">Azure AI 검색 서비스 계층은 SLA를 갖도록 선택해야 합니다. </t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>트랜짓 암호화</t>
+          <t>전송 데이터 암호화</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Azure Defender를 활용하여 보안 위협을 탐지 및 대응하고 의심스러운 활동 또는 위반을 식별하기 위한 모니터링 및 경고 메커니즘을 설정합니다. 고급 위협 탐지 및 대응을 위해 Azure Sentinel 활용</t>
+          <t>Azure Defender를 활용하여 보안 위협을 감지 및 대응하고 모니터링 및 경고 메커니즘을 설정하여 의심스러운 활동 또는 위반을 식별합니다. 고급 위협 탐지 및 대응을 위해 Azure Sentinel 활용</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-cloud-introduction</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/ai-onboarding</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>데이터 민감도 수준이 다양하다면 각 수준에 대해 별도의 인덱스를 만드는 것이 좋습니다. 예를 들어, 일반 데이터에 대한 인덱스와 민감한 데이터에 대한 인덱스가 있을 수 있으며, 각각 다른 액세스 프로토콜에 의해 제어됩니다</t>
+          <t>다양한 수준의 데이터 민감도가 있는 경우 각 수준에 대해 별도의 인덱스를 만드는 것이 좋습니다. 예를 들어, 일반 데이터에 대한 인덱스와 민감한 데이터에 대한 인덱스가 있을 수 있으며, 각각 다른 액세스 프로토콜에 의해 제어됩니다</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2794,12 +2794,12 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>별도의 인스턴스에 있는 민감한 데이터Sensitive Data in separate instances</t>
+          <t>별도의 인스턴스에 있는 민감한 데이터</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>한 단계 더 나아가 중요한 데이터 세트를 서비스의 다른 인스턴스에 배치합니다. 각 인스턴스는 고유한 특정 RBAC 정책 집합으로 제어할 수 있습니다</t>
+          <t>중요한 데이터 세트를 서비스의 다른 인스턴스에 배치하여 분리를 한 단계 더 수행합니다. 각 인스턴스는 고유한 특정 RBAC 정책 집합으로 제어할 수 있습니다</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>민감한 정보에서 생성된 임베딩과 벡터는 그 자체로 민감하다는 점을 인식해야 합니다. 이 데이터에는 원본 자료와 동일한 보호 조치가 제공되어야 합니다</t>
+          <t>민감한 정보에서 생성된 임베딩과 벡터는 그 자체로 민감하다는 것을 인식합니다. 이 데이터에는 원본 자료와 동일한 보호 조치가 제공되어야 합니다</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>보안 감사 및 침투 테스트를 수행하여 LLM 애플리케이션의 네트워크 인프라에서 네트워크 보안 약점 또는 취약성을 식별하고 해결합니다.</t>
+          <t>LLM 애플리케이션의 네트워크 인프라에서 네트워크 보안 약점 또는 취약성을 식별하고 해결하기 위해 보안 감사 및 침투 테스트를 수행합니다.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 키를 안전하게 저장하고 관리하세요. LLM 애플리케이션의 코드 내에 중요한 키를 하드 코딩하거나 포함하지 않도록 하고 관리 ID를 사용하여 Azure Key Vault에서 안전하게 검색합니다.</t>
+          <t>Azure Key Vault를 사용하여 키를 안전하게 저장하고 관리하세요. LLM 애플리케이션의 코드 내에 중요한 키를 하드 코딩하거나 포함하지 않고 관리 ID를 사용하여 Azure Key Vault에서 안전하게 검색합니다.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>보안 코딩 관행에 따라 주입 공격, XSS(교차 사이트 스크립팅) 또는 보안 구성 오류와 같은 일반적인 취약성을 방지합니다</t>
+          <t>보안 코딩 관행에 따라 주입 공격, XSS(교차 사이트 스크립팅) 또는 보안 구성 오류와 같은 일반적인 취약성을 방지합니다.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>LLM 라이브러리와 다른 시스템 컴포넌트를 정기적으로 업데이트하고 패치하는 프로세스를 설정합니다.</t>
+          <t>LLM 라이브러리 및 기타 시스템 구성 요소를 정기적으로 업데이트하고 패치하는 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3770,12 +3770,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>배치 처리</t>
+          <t>일괄 처리</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 호출당 오버헤드를 최소화하여 전체 비용을 줄일 수 있는 일괄 처리 요청. 배치 크기를 최적화해야 합니다.</t>
+          <t>가능한 경우 전체 비용을 줄일 수 있는 호출당 오버헤드를 최소화하기 위해 일괄 처리 요청을 수행합니다. 배치 크기를 최적화해야 합니다.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>모델 응답당 토큰 수에 대한 최대 제한을 설정합니다. 유효한 응답에 사용할 수 있을 만큼 충분히 큰지 확인하기 위해 크기를 최적화합니다</t>
+          <t>모델 응답당 토큰 수(max_tokens 및 생성할 완료 수에 대한 최대 제한을 설정합니다). 유효한 응답에 충분한 크기가 되도록 크기를 최적화합니다</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>AI 검색 신뢰성</t>
+          <t>AI 검색 벡터의 한계</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>안정성을 위한 AI 검색 설정에 대해 제공된 지침을 검토합니다.</t>
+          <t>AI Search Vector 스토리지 계획 및 관리</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3930,7 +3930,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
+          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3938,7 +3938,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>71ca7da8-cfa9-462a-8594-946da97dc3a2</t>
+          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3954,12 +3954,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>AI 검색 벡터 한계</t>
+          <t>데브옵스</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>AI Search Vector 스토리지 계획 및 관리</t>
+          <t>개발, 테스트 및 프로덕션 지원 및 실험과 같은 다양한 환경에서 Azure OpenAI 인스턴스를 배포해야 합니다. LLMOps 사례를 적용하여 GenAI 애플리케이션의 라이프사이클 관리를 자동화합니다.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3976,7 +3976,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -3984,7 +3984,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3995,23 +3995,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>운영 관리</t>
+          <t>비용 최적화</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>데브옵스</t>
+          <t>원가 계산 모델</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>LLMOps 사례를 적용하여 GenAI 애플리케이션의 라이프사이클 관리를 자동화합니다.</t>
+          <t>청구 모델 사용 평가 - PAYG 및 PTU. PAYG로 시작하고 지정된 모델 버전에 대해 전용 메모리 및 컴퓨팅, 예약된 용량 및 일관된 최대 대기 시간을 제공하므로 프로덕션에서 사용량을 예측할 수 있는 경우 PTU를 고려합니다</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4022,7 +4022,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4030,7 +4030,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
+          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4041,23 +4041,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>비용 최적화</t>
+          <t>운영 관리</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>원가 계산 모델</t>
+          <t>데브옵스</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>청구 모델 사용 평가 - PAYG 대 PTU</t>
+          <t>모델 버전 간에 전환할 때 프롬프트와 응용 프로그램의 품질을 평가합니다.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4068,7 +4068,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
+          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
+          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>데브옵스</t>
+          <t>발달</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>모델 버전 간에 전환할 때 프롬프트와 응용 프로그램의 품질을 평가합니다.</t>
+          <t>GenAI 앱을 평가, 모니터링 및 개선하여 근거, 관련성, 정확성, 일관성 및 유창성과 같은 기능을 제공합니다.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4122,7 +4122,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
+          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>GenAI 앱을 평가, 모니터링 및 개선하여 근거, 관련성, 정확성, 일관성, 유창성 등의 기능을 제공합니다.</t>
+          <t>다양한 검색 매개 변수를 기반으로 Azure AI Search 결과를 평가합니다</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4158,17 +4158,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
+          <t>294798b1-578b-4219-a46c-eb5443513592</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4189,7 +4185,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>다양한 검색 매개 변수를 기반으로 Azure AI Search 결과를 평가합니다</t>
+          <t>데이터를 사용하여 프롬프트 엔지니어링 및 RAG와 같은 다른 기본 접근 방식을 시도한 경우에만 정확도를 높이는 방법으로 모델을 미세 조정하십시오</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4204,13 +4200,17 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>294798b1-578b-4219-a46c-eb5443513592</t>
+          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>데이터를 사용하여 프롬프트 엔지니어링 및 RAG와 같은 다른 기본 접근 방식을 시도한 경우에만 모델을 미세 조정하여 정확도를 높이는 방법으로 살펴보십시오</t>
+          <t>프롬프트 엔지니어링 기법을 사용하여 LLM 응답의 정확도 향상</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4248,7 +4248,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4256,7 +4256,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
+          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4267,17 +4267,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>운영 관리</t>
+          <t>거버넌스 및 보안</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>발달</t>
+          <t>보안 감사 및 침투 테스트</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>프롬프트 엔지니어링 기법을 사용하여 LLM 응답의 정확도 향상</t>
+          <t>GenAI 애플리케이션을 위한 레드팀</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4294,7 +4294,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4302,7 +4302,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
+          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4313,17 +4313,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>거버넌스 및 보안</t>
+          <t>운영 관리</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>보안 감사 및 침투 테스트</t>
+          <t>최종 사용자 피드백</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>GenAI 애플리케이션을 위한 레드 팀</t>
+          <t xml:space="preserve">최종 사용자에게 LLM 응답에 대한 점수 매기기 옵션을 제공하고 이러한 점수를 추적합니다. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4340,7 +4340,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
+          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4348,7 +4348,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
+          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>최종 사용자 피드백</t>
+          <t>미세 조정</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">최종 사용자에게 LLM 응답에 대한 점수 매기기 옵션을 제공하고 이러한 점수를 추적합니다. </t>
+          <t>큰 데이터 파일을 미세 조정하기 위한 지침을 따르고 Azure Blob 저장소에서 데이터를 가져옵니다. 100MB 이상의 대용량 파일은 요청이 원자성이고 다시 시도하거나 다시 시작할 수 없기 때문에 멀티파트 양식을 통해 업로드할 때 불안정해질 수 있습니다</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4386,7 +4386,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/fine-tuning?tabs=turbo%2Cpython-new&amp;pivots=programming-language-studio#import-training-data-from-azure-blob-store</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4405,23 +4405,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>비용 최적화</t>
+          <t>운영 관리</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>할당량 관리</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>할당량 관리 방법 고려</t>
+          <t>모델 배포에 대한 속도 제한을 관리하고 종량제 배포를 위한 TPM(분당 토큰) 및 RPM(분당 요청 수) 사용량을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4432,7 +4432,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/quota?tabs=rest</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4440,7 +4440,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>로드 밸런싱</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>APIM 기반 게이트웨이와 같은 Load Balancer 솔루션을 사용하여 서비스 및 지역 간에 부하와 용량을 분산합니다</t>
+          <t>프로비저닝된 처리량 지불 모델을 사용하는 경우 프로비저닝 관리 사용률 모니터링Monitor provision-managed utilization if you're using the provisioned throughput payment model</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4486,7 +4486,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4495,221 +4495,598 @@
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>비용 최적화</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>할당량 관리</t>
+        </is>
+      </c>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>할당량 관리 방법을 고려합니다. 애플리케이션이 기회적으로 추가 용량을 사용할 수 있거나 애플리케이션 자체가 Azure OpenAI API가 호출되는 속도를 구동하는 특정 사용 사례에 대해 동적 할당량을 사용합니다</t>
+        </is>
+      </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="n"/>
+      <c r="H84" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+        </is>
+      </c>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>책임감 있는 AI</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>콘텐츠 안전성</t>
+        </is>
+      </c>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>콘텐츠 필터를 조정하여 과도하게 공격적인 필터로 인한 오탐을 최소화합니다.</t>
+        </is>
+      </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="n"/>
+      <c r="H85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/content-filters</t>
+        </is>
+      </c>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>거버넌스 및 보안</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>키 관리</t>
+        </is>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>Azure OpenAI에 업로드된 미세 조정된 모델 및 학습 데이터에 고객 관리형 키 사용</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="n"/>
+      <c r="H86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/encrypt-data-at-rest</t>
+        </is>
+      </c>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>거버넌스 및 보안</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>탈옥 방지</t>
+        </is>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>탈옥 위험 검색을 구현하여 즉각적인 주입 공격으로부터 언어 모델 배포를 보호합니다.</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="n"/>
+      <c r="H87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/content-safety/concepts/jailbreak-detection</t>
+        </is>
+      </c>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>거버넌스 및 보안</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>할당량 소진</t>
+        </is>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>제한, 서비스 격리 및 게이트웨이 패턴과 같은 보안 제어를 사용하여 모델 사용 할당량을 소진할 수 있는 공격을 방지합니다.</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="n"/>
+      <c r="H88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
+        </is>
+      </c>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>비용 최적화</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>비용 추정</t>
+        </is>
+      </c>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>프롬프트 크기를 고려하여 비용 모델을 개발합니다. 프롬프트 입력 및 응답 크기와 텍스트가 토큰으로 변환되는 방식을 이해하면 실행 가능한 비용 모델을 만드는 데 도움이 됩니다</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="n"/>
+      <c r="H89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr">
+        <is>
+          <t>비용 최적화</t>
+        </is>
+      </c>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>모델 선택</t>
+        </is>
+      </c>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>모델을 선택할 때 모델 가격 및 기능을 고려합니다. 텍스트 생성 또는 완성 작업과 같은 덜 복잡한 작업과 언어 번역 또는 콘텐츠 이해와 같은 복잡한 작업의 경우 비용이 저렴한 모델로 시작하여 고급 모델을 사용하는 것이 좋습니다. 비용을 최적화하는 동시에 원하는 애플리케이션 성능을 달성합니다.</t>
+        </is>
+      </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/details/cognitive-services/openai-service/</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>비용 최적화</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>사용 최적화</t>
+        </is>
+      </c>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>미세 조정과 같은 Azure OpenAI 가격 중단점과 이미지 생성과 같은 모델 중단점을 최대한 활용하세요. 미세 조정은 시간당 요금이 청구되며, 다음 청구 기간으로 넘어가지 않고 결과를 개선하기 위해 시간당 사용 가능한 시간을 최대한 사용하십시오. 이미지 100개를 생성하는 비용은 이미지 1개에 대한 비용과 동일합니다</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="n"/>
+      <c r="H91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>비용 최적화</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>사용 최적화</t>
+        </is>
+      </c>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>더 이상 사용되지 않는 미세 조정된 모델을 제거하여 지속적인 호스팅 비용이 발생하지 않도록 합니다.</t>
+        </is>
+      </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>비용 최적화</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>토큰 최적화</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>모델이 유용한 응답을 생성할 수 있도록 충분한 컨텍스트를 제공하는 간결한 프롬프트를 만듭니다. 또한 응답 길이의 한계를 최적화해야 합니다.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>운영 관리</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>(주)이아씨</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>IaC(Infrastructure as Code)를 사용하여 Azure OpenAI, 모델 배포 및 모델 미세 조정에 필요한 기타 인프라 배포</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/create-account-bicep</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>운영 관리</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>로드 밸런싱</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>APIM 기반 게이트웨이와 같은 Load Balancer 솔루션을 사용하여 서비스 및 지역 간에 부하와 용량을 분산합니다</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+        </is>
+      </c>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>운영 관리</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>발달</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>소비자 그룹당 전용 모델 배포를 사용하여 소비자 그룹 간의 시끄러운 이웃을 방지하는 데 도움이 될 수 있는 모델별 사용 격리를 제공하는 것이 좋습니다</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/multitenant/service/openai</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>2744293b-b628-4537-a551-19b08e8f5855</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
@@ -7971,7 +8348,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8099,7 +8476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결성</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8153,7 +8530,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해하지만 현재 요구 사항에 필요하지 않음</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
